--- a/hypothetical data.xlsx
+++ b/hypothetical data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Paper - WSC\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1A8D90-3663-4432-A617-9BEC37AF1643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA62B090-02FB-4948-9E89-585353DCA816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="22290" windowHeight="13425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="generator" sheetId="1" r:id="rId1"/>
@@ -369,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:F101"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +398,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">_xlfn.FLOOR.MATH(B2*C2+NORMINV(RAND(),0,5))</f>
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B2">
         <f ca="1">_xlfn.FLOOR.MATH(NORMINV(RAND(),10,1))</f>
@@ -406,7 +406,7 @@
       </c>
       <c r="C2">
         <f ca="1">_xlfn.FLOOR.MATH(NORMINV(RAND(),20,2))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
         <f ca="1">_xlfn.FLOOR.MATH(SQRT(C2)+NORMINV(RAND(),0,1))</f>
@@ -414,7 +414,7 @@
       </c>
       <c r="E2">
         <f ca="1">_xlfn.FLOOR.MATH(NORMINV(RAND(),50,10))</f>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1,2)</f>
@@ -424,11 +424,11 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A66" ca="1" si="0">_xlfn.FLOOR.MATH(B3*C3+NORMINV(RAND(),0,5))</f>
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="1">_xlfn.FLOOR.MATH(NORMINV(RAND(),10,1))</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="2">_xlfn.FLOOR.MATH(NORMINV(RAND(),20,2))</f>
@@ -436,37 +436,37 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" ca="1" si="3">_xlfn.FLOOR.MATH(SQRT(C3)+NORMINV(RAND(),0,1))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" ca="1" si="4">_xlfn.FLOOR.MATH(NORMINV(RAND(),50,10))</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="5">RANDBETWEEN(1,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <f ca="1">_xlfn.FLOOR.MATH(NORMINV(RAND(),20,2))</f>
+        <v>20</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="5"/>
@@ -476,7 +476,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
@@ -484,51 +484,51 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
@@ -536,15 +536,15 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
@@ -554,49 +554,49 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
@@ -606,11 +606,11 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
@@ -618,47 +618,47 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
@@ -666,7 +666,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
@@ -674,59 +674,59 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
@@ -736,7 +736,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
@@ -752,7 +752,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
@@ -762,7 +762,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
@@ -770,15 +770,15 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
@@ -788,7 +788,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
@@ -796,15 +796,15 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
@@ -814,7 +814,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
@@ -822,7 +822,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
@@ -834,21 +834,21 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
@@ -856,7 +856,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="5"/>
@@ -866,7 +866,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
@@ -878,11 +878,11 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="5"/>
@@ -892,15 +892,15 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="5"/>
@@ -918,7 +918,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
@@ -926,51 +926,51 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
@@ -978,15 +978,15 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="5"/>
@@ -996,23 +996,23 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="5"/>
@@ -1022,23 +1022,23 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="5"/>
@@ -1048,11 +1048,11 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
@@ -1060,11 +1060,11 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="5"/>
@@ -1074,33 +1074,33 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
@@ -1108,15 +1108,15 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="5"/>
@@ -1126,11 +1126,11 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
@@ -1138,21 +1138,21 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
@@ -1168,33 +1168,33 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
@@ -1204,11 +1204,11 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="2"/>
@@ -1216,25 +1216,25 @@
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="2"/>
@@ -1242,11 +1242,11 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
@@ -1256,23 +1256,23 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
@@ -1282,23 +1282,23 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
@@ -1308,15 +1308,15 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="3"/>
@@ -1324,21 +1324,21 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ca="1" si="0"/>
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="2"/>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
@@ -1360,23 +1360,23 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
@@ -1386,11 +1386,11 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="2"/>
@@ -1398,11 +1398,11 @@
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
@@ -1412,33 +1412,33 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
@@ -1450,21 +1450,21 @@
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ca="1" si="0"/>
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
@@ -1472,15 +1472,15 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="5"/>
@@ -1490,15 +1490,15 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ca="1" si="0"/>
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="3"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="5"/>
@@ -1516,33 +1516,33 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ca="1" si="0"/>
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
@@ -1550,41 +1550,41 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="5"/>
@@ -1594,49 +1594,49 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="5"/>
@@ -1646,7 +1646,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
@@ -1654,15 +1654,15 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="5"/>
@@ -1672,7 +1672,7 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="3"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="5"/>
@@ -1698,15 +1698,15 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="3"/>
@@ -1714,7 +1714,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="5"/>
@@ -1724,7 +1724,7 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
@@ -1732,15 +1732,15 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="5"/>
@@ -1750,37 +1750,37 @@
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ca="1" si="0"/>
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="2"/>
@@ -1788,11 +1788,11 @@
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="5"/>
@@ -1802,15 +1802,15 @@
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="3"/>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="5"/>
@@ -1828,15 +1828,15 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ca="1" si="0"/>
-        <v>159</v>
+        <v>228</v>
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="3"/>
@@ -1844,33 +1844,33 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ca="1" si="0"/>
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="B58">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="5"/>
@@ -1880,33 +1880,33 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ca="1" si="0"/>
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
@@ -1914,15 +1914,15 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="5"/>
@@ -1932,33 +1932,33 @@
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ca="1" si="0"/>
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="3"/>
@@ -1974,7 +1974,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="5"/>
@@ -1984,33 +1984,33 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ca="1" si="0"/>
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="4"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ca="1" si="0"/>
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B64">
         <f t="shared" ca="1" si="1"/>
@@ -2018,15 +2018,15 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="5"/>
@@ -2036,33 +2036,33 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ca="1" si="0"/>
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="3"/>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="5"/>
@@ -2088,15 +2088,15 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A101" ca="1" si="6">_xlfn.FLOOR.MATH(B67*C67+NORMINV(RAND(),0,5))</f>
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" ca="1" si="7">_xlfn.FLOOR.MATH(NORMINV(RAND(),10,1))</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C101" ca="1" si="8">_xlfn.FLOOR.MATH(NORMINV(RAND(),20,2))</f>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D101" ca="1" si="9">_xlfn.FLOOR.MATH(SQRT(C67)+NORMINV(RAND(),0,1))</f>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E101" ca="1" si="10">_xlfn.FLOOR.MATH(NORMINV(RAND(),50,10))</f>
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="11">RANDBETWEEN(1,2)</f>
@@ -2114,15 +2114,15 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ca="1" si="6"/>
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="9"/>
@@ -2130,25 +2130,25 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ca="1" si="6"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="9"/>
@@ -2156,17 +2156,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ca="1" si="6"/>
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="7"/>
@@ -2174,41 +2174,41 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ca="1" si="6"/>
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="11"/>
@@ -2218,7 +2218,7 @@
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ca="1" si="6"/>
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="7"/>
@@ -2226,33 +2226,33 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="10"/>
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ca="1" si="6"/>
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="9"/>
@@ -2270,7 +2270,7 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ca="1" si="6"/>
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B74">
         <f t="shared" ca="1" si="7"/>
@@ -2278,15 +2278,15 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="11"/>
@@ -2296,49 +2296,49 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ca="1" si="6"/>
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="10"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ca="1" si="6"/>
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="10"/>
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="11"/>
@@ -2348,15 +2348,15 @@
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ca="1" si="6"/>
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="9"/>
@@ -2364,59 +2364,59 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="10"/>
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ca="1" si="6"/>
-        <v>202</v>
+        <v>136</v>
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ca="1" si="6"/>
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="11"/>
@@ -2426,11 +2426,11 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ca="1" si="6"/>
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="8"/>
@@ -2438,11 +2438,11 @@
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="10"/>
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="11"/>
@@ -2452,15 +2452,15 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ca="1" si="6"/>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B81">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="9"/>
@@ -2468,33 +2468,33 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="10"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ca="1" si="6"/>
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="11"/>
@@ -2504,7 +2504,7 @@
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ca="1" si="6"/>
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="7"/>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="8"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="9"/>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="10"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="11"/>
@@ -2530,11 +2530,11 @@
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ca="1" si="6"/>
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="B84">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="8"/>
@@ -2542,21 +2542,21 @@
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="10"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ca="1" si="6"/>
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="7"/>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="9"/>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="10"/>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="11"/>
@@ -2582,33 +2582,33 @@
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ca="1" si="6"/>
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ca="1" si="6"/>
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B87">
         <f t="shared" ca="1" si="7"/>
@@ -2616,15 +2616,15 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="11"/>
@@ -2634,7 +2634,7 @@
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ca="1" si="6"/>
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="7"/>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="9"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="10"/>
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="11"/>
@@ -2660,23 +2660,23 @@
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ca="1" si="6"/>
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="10"/>
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="11"/>
@@ -2686,67 +2686,67 @@
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ca="1" si="6"/>
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="8"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ca="1" si="6"/>
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ca="1" si="6"/>
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="9"/>
@@ -2754,17 +2754,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="10"/>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ca="1" si="6"/>
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="7"/>
@@ -2776,25 +2776,25 @@
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="10"/>
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ca="1" si="6"/>
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="8"/>
@@ -2802,25 +2802,25 @@
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="10"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ca="1" si="6"/>
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B95">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="8"/>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="11"/>
@@ -2842,33 +2842,33 @@
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ca="1" si="6"/>
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="10"/>
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ca="1" si="6"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="7"/>
@@ -2876,15 +2876,15 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="10"/>
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="11"/>
@@ -2894,63 +2894,63 @@
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ca="1" si="6"/>
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="8"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="10"/>
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ca="1" si="6"/>
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="10"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ca="1" si="6"/>
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="8"/>
@@ -2958,33 +2958,33 @@
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ca="1" si="6"/>
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="10"/>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3004,7 +3004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8590D28-7049-4DD4-AD94-7F0E80CCD66D}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
